--- a/metrics/week 6 du.xlsx
+++ b/metrics/week 6 du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gordon\SMU\IS212\GitHub\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{07FC4562-3BCF-4CC5-89DC-263623DEB23E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F54739-0683-44AE-872F-860D0D83DA5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="60" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>Person</t>
   </si>
@@ -124,6 +124,27 @@
   </si>
   <si>
     <t>PM Review preparation for week 7</t>
+  </si>
+  <si>
+    <t>Code CourseCompletedDAO and PrerequisiteDAO</t>
+  </si>
+  <si>
+    <t>Finish up coding remaining DAOs (Bid, BiddingRound, Round1)</t>
+  </si>
+  <si>
+    <t>Had to fix some foreign key errors in SQL</t>
+  </si>
+  <si>
+    <t>Code token, common, JWT</t>
+  </si>
+  <si>
+    <t>Replace session authentication with token authentication</t>
+  </si>
+  <si>
+    <t>Realised that we authenticated by session instead of token</t>
+  </si>
+  <si>
+    <t>Realised there were many things to think about on scheduling</t>
   </si>
 </sst>
 </file>
@@ -498,9 +519,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="D18" sqref="D18"/>
+      <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -603,7 +624,9 @@
       <c r="D3" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E3" s="7"/>
+      <c r="E3" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
@@ -620,7 +643,9 @@
       <c r="D4" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E4" s="7"/>
+      <c r="E4" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="6"/>
@@ -637,7 +662,9 @@
       <c r="D5" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="7"/>
+      <c r="E5" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
@@ -656,7 +683,9 @@
       <c r="D6" s="7" t="s">
         <v>25</v>
       </c>
-      <c r="E6" s="7"/>
+      <c r="E6" s="7" t="s">
+        <v>34</v>
+      </c>
       <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
@@ -673,7 +702,9 @@
       <c r="D7" s="7" t="s">
         <v>26</v>
       </c>
-      <c r="E7" s="7"/>
+      <c r="E7" s="7" t="s">
+        <v>35</v>
+      </c>
       <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6"/>
@@ -690,7 +721,9 @@
       <c r="D8" s="7" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="7"/>
+      <c r="E8" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6"/>
@@ -709,7 +742,9 @@
       <c r="D9" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E9" s="7"/>
+      <c r="E9" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
@@ -726,7 +761,9 @@
       <c r="D10" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="7"/>
+      <c r="E10" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6"/>
@@ -743,7 +780,9 @@
       <c r="D11" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E11" s="7"/>
+      <c r="E11" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6"/>
@@ -762,7 +801,9 @@
       <c r="D12" s="7" t="s">
         <v>24</v>
       </c>
-      <c r="E12" s="7"/>
+      <c r="E12" s="7" t="s">
+        <v>31</v>
+      </c>
       <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6"/>
@@ -779,7 +820,9 @@
       <c r="D13" s="7" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="7"/>
+      <c r="E13" s="7" t="s">
+        <v>32</v>
+      </c>
       <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6"/>
@@ -796,7 +839,9 @@
       <c r="D14" s="7" t="s">
         <v>29</v>
       </c>
-      <c r="E14" s="7"/>
+      <c r="E14" s="7" t="s">
+        <v>33</v>
+      </c>
       <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="6"/>
@@ -815,7 +860,9 @@
       <c r="D15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="E15" s="7"/>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
       <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6"/>
@@ -832,7 +879,9 @@
       <c r="D16" s="7" t="s">
         <v>30</v>
       </c>
-      <c r="E16" s="7"/>
+      <c r="E16" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6"/>
@@ -849,7 +898,9 @@
       <c r="D17" s="7" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="7"/>
+      <c r="E17" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6"/>

--- a/metrics/week 6 du.xlsx
+++ b/metrics/week 6 du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gordon\SMU\IS212\GitHub\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F54739-0683-44AE-872F-860D0D83DA5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E060569-4446-4BBD-98B9-D8EDE5C1B91C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
   <si>
     <t>Person</t>
   </si>
@@ -99,9 +99,6 @@
     <t>Start coding DAOs</t>
   </si>
   <si>
-    <t>NIL</t>
-  </si>
-  <si>
     <t>Start coding common files (eg. connection manager, protect)</t>
   </si>
   <si>
@@ -145,6 +142,30 @@
   </si>
   <si>
     <t>Realised there were many things to think about on scheduling</t>
+  </si>
+  <si>
+    <t>Code BiddingRoundDAO, Round1DAO, admin home</t>
+  </si>
+  <si>
+    <t>Code admin controls, eg. navigation for bootstrap, round management</t>
+  </si>
+  <si>
+    <t>Difficulty coding Round 1 related DAOs without Round 1 clearing logic code</t>
+  </si>
+  <si>
+    <t>Replace session authentication with token authentication for student</t>
+  </si>
+  <si>
+    <t>Replace session authentication with token authentication for admin</t>
+  </si>
+  <si>
+    <t>Initially, wasn't sure that we were supposed to pass token using $_GET on every page</t>
+  </si>
+  <si>
+    <t>Code boostrap</t>
+  </si>
+  <si>
+    <t>No issues</t>
   </si>
 </sst>
 </file>
@@ -519,7 +540,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
@@ -622,12 +643,14 @@
         <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -638,15 +661,17 @@
         <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -657,15 +682,17 @@
         <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -681,12 +708,14 @@
         <v>18</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -697,15 +726,17 @@
         <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>41</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -716,15 +747,17 @@
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -740,12 +773,14 @@
         <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -759,12 +794,14 @@
         <v>21</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -775,15 +812,17 @@
         <v>12</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -799,12 +838,14 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -818,12 +859,14 @@
         <v>21</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -834,15 +877,17 @@
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -861,9 +906,11 @@
         <v>18</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -877,12 +924,14 @@
         <v>18</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -893,15 +942,17 @@
         <v>12</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>22</v>
+        <v>44</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>44</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>

--- a/metrics/week 6 du.xlsx
+++ b/metrics/week 6 du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gordon\SMU\IS212\GitHub\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8E060569-4446-4BBD-98B9-D8EDE5C1B91C}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F54739-0683-44AE-872F-860D0D83DA5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
   <si>
     <t>Person</t>
   </si>
@@ -99,6 +99,9 @@
     <t>Start coding DAOs</t>
   </si>
   <si>
+    <t>NIL</t>
+  </si>
+  <si>
     <t>Start coding common files (eg. connection manager, protect)</t>
   </si>
   <si>
@@ -142,30 +145,6 @@
   </si>
   <si>
     <t>Realised there were many things to think about on scheduling</t>
-  </si>
-  <si>
-    <t>Code BiddingRoundDAO, Round1DAO, admin home</t>
-  </si>
-  <si>
-    <t>Code admin controls, eg. navigation for bootstrap, round management</t>
-  </si>
-  <si>
-    <t>Difficulty coding Round 1 related DAOs without Round 1 clearing logic code</t>
-  </si>
-  <si>
-    <t>Replace session authentication with token authentication for student</t>
-  </si>
-  <si>
-    <t>Replace session authentication with token authentication for admin</t>
-  </si>
-  <si>
-    <t>Initially, wasn't sure that we were supposed to pass token using $_GET on every page</t>
-  </si>
-  <si>
-    <t>Code boostrap</t>
-  </si>
-  <si>
-    <t>No issues</t>
   </si>
 </sst>
 </file>
@@ -540,7 +519,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="E16" sqref="E16"/>
     </sheetView>
@@ -643,14 +622,12 @@
         <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
-      <c r="F3" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="F3" s="7"/>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -661,17 +638,15 @@
         <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
-      <c r="F4" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="F4" s="7"/>
       <c r="G4" s="7"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -682,17 +657,15 @@
         <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
-      <c r="F5" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="F5" s="7"/>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -708,14 +681,12 @@
         <v>18</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
-      <c r="F6" s="7" t="s">
-        <v>40</v>
-      </c>
+      <c r="F6" s="7"/>
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -726,17 +697,15 @@
         <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
-      <c r="F7" s="7" t="s">
-        <v>41</v>
-      </c>
+      <c r="F7" s="7"/>
       <c r="G7" s="7"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -747,17 +716,15 @@
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
+      <c r="F8" s="7"/>
       <c r="G8" s="7"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -773,14 +740,12 @@
         <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
-      <c r="F9" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="F9" s="7"/>
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -794,14 +759,12 @@
         <v>21</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
-      <c r="F10" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="F10" s="7"/>
       <c r="G10" s="7"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -812,17 +775,15 @@
         <v>12</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
-      <c r="F11" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="F11" s="7"/>
       <c r="G11" s="7"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -838,14 +799,12 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
-      <c r="F12" s="7" t="s">
-        <v>37</v>
-      </c>
+      <c r="F12" s="7"/>
       <c r="G12" s="7"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -859,14 +818,12 @@
         <v>21</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>31</v>
+        <v>32</v>
       </c>
-      <c r="F13" s="7" t="s">
-        <v>38</v>
-      </c>
+      <c r="F13" s="7"/>
       <c r="G13" s="7"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -877,17 +834,15 @@
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>32</v>
+        <v>33</v>
       </c>
-      <c r="F14" s="7" t="s">
-        <v>39</v>
-      </c>
+      <c r="F14" s="7"/>
       <c r="G14" s="7"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -906,11 +861,9 @@
         <v>18</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
-      <c r="F15" s="7" t="s">
-        <v>18</v>
-      </c>
+      <c r="F15" s="7"/>
       <c r="G15" s="7"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -924,14 +877,12 @@
         <v>18</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="7" t="s">
-        <v>43</v>
-      </c>
+      <c r="F16" s="7"/>
       <c r="G16" s="7"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -942,17 +893,15 @@
         <v>12</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
-      <c r="F17" s="7" t="s">
-        <v>44</v>
-      </c>
+      <c r="F17" s="7"/>
       <c r="G17" s="7"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>

--- a/metrics/week 6 du.xlsx
+++ b/metrics/week 6 du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gordon\SMU\IS212\GitHub\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5F54739-0683-44AE-872F-860D0D83DA5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E9522B-BA6E-48FD-B3A3-E484A7438015}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
   <si>
     <t>Person</t>
   </si>
@@ -90,16 +90,10 @@
     <t>Non-working day</t>
   </si>
   <si>
-    <t>Check forum, project wiki and update requirements and finalize schedule</t>
-  </si>
-  <si>
     <t>Week: 23 September 2019 to 29 September 2019</t>
   </si>
   <si>
     <t>Start coding DAOs</t>
-  </si>
-  <si>
-    <t>NIL</t>
   </si>
   <si>
     <t>Start coding common files (eg. connection manager, protect)</t>
@@ -145,6 +139,30 @@
   </si>
   <si>
     <t>Realised there were many things to think about on scheduling</t>
+  </si>
+  <si>
+    <t>Code bootstrap and admin control pages</t>
+  </si>
+  <si>
+    <t>Integrate code, create test cases and bug log/metric for existing functions</t>
+  </si>
+  <si>
+    <t>Bootstrap was tedious to code as bugs were hard to detect</t>
+  </si>
+  <si>
+    <t>Replace session authentication with token authentication for admin</t>
+  </si>
+  <si>
+    <t>Had to wait for other pair to finish admin_round and admin_bootstrap in order to token protect their files</t>
+  </si>
+  <si>
+    <t>Check forum, project wiki, update on requirements and schedule</t>
+  </si>
+  <si>
+    <t>Critical path, test cases</t>
+  </si>
+  <si>
+    <t>No issues</t>
   </si>
 </sst>
 </file>
@@ -519,9 +537,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A11" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="E16" sqref="E16"/>
+      <selection pane="topRight" activeCell="F17" sqref="F17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -543,7 +561,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="8" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="D1" s="9"/>
       <c r="E1" s="9"/>
@@ -622,12 +640,14 @@
         <v>18</v>
       </c>
       <c r="D3" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E3" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
-      <c r="F3" s="7"/>
+      <c r="F3" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="G3" s="7"/>
       <c r="H3" s="6"/>
       <c r="I3" s="6"/>
@@ -638,15 +658,17 @@
         <v>11</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D4" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E4" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="F4" s="7"/>
+      <c r="F4" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="G4" s="7"/>
       <c r="H4" s="6"/>
       <c r="I4" s="6"/>
@@ -657,15 +679,17 @@
         <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D5" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E5" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
-      <c r="F5" s="7"/>
+      <c r="F5" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G5" s="7"/>
       <c r="H5" s="6"/>
       <c r="I5" s="6"/>
@@ -681,12 +705,14 @@
         <v>18</v>
       </c>
       <c r="D6" s="7" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E6" s="7" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
-      <c r="F6" s="7"/>
+      <c r="F6" s="7" t="s">
+        <v>39</v>
+      </c>
       <c r="G6" s="7"/>
       <c r="H6" s="6"/>
       <c r="I6" s="6"/>
@@ -697,15 +723,17 @@
         <v>14</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D7" s="7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="E7" s="7" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
-      <c r="F7" s="7"/>
+      <c r="F7" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="G7" s="7"/>
       <c r="H7" s="6"/>
       <c r="I7" s="6"/>
@@ -716,15 +744,17 @@
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D8" s="7" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="E8" s="7" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
-      <c r="F8" s="7"/>
+      <c r="F8" s="7" t="s">
+        <v>40</v>
+      </c>
       <c r="G8" s="7"/>
       <c r="H8" s="6"/>
       <c r="I8" s="6"/>
@@ -740,12 +770,14 @@
         <v>18</v>
       </c>
       <c r="D9" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E9" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
-      <c r="F9" s="7"/>
+      <c r="F9" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="G9" s="7"/>
       <c r="H9" s="6"/>
       <c r="I9" s="6"/>
@@ -756,15 +788,17 @@
         <v>14</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D10" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E10" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
-      <c r="F10" s="7"/>
+      <c r="F10" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="G10" s="7"/>
       <c r="H10" s="6"/>
       <c r="I10" s="6"/>
@@ -775,15 +809,17 @@
         <v>12</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D11" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E11" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
-      <c r="F11" s="7"/>
+      <c r="F11" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="G11" s="7"/>
       <c r="H11" s="6"/>
       <c r="I11" s="6"/>
@@ -799,12 +835,14 @@
         <v>18</v>
       </c>
       <c r="D12" s="7" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" s="7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
-      <c r="F12" s="7"/>
+      <c r="F12" s="7" t="s">
+        <v>36</v>
+      </c>
       <c r="G12" s="7"/>
       <c r="H12" s="6"/>
       <c r="I12" s="6"/>
@@ -815,15 +853,17 @@
         <v>14</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D13" s="7" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
-      <c r="F13" s="7"/>
+      <c r="F13" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="G13" s="7"/>
       <c r="H13" s="6"/>
       <c r="I13" s="6"/>
@@ -834,15 +874,17 @@
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D14" s="7" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="E14" s="7" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
-      <c r="F14" s="7"/>
+      <c r="F14" s="7" t="s">
+        <v>38</v>
+      </c>
       <c r="G14" s="7"/>
       <c r="H14" s="6"/>
       <c r="I14" s="6"/>
@@ -855,15 +897,17 @@
         <v>10</v>
       </c>
       <c r="C15" s="6" t="s">
-        <v>19</v>
+        <v>41</v>
       </c>
       <c r="D15" s="7" t="s">
         <v>18</v>
       </c>
       <c r="E15" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
-      <c r="F15" s="7"/>
+      <c r="F15" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="G15" s="7"/>
       <c r="H15" s="6"/>
       <c r="I15" s="6"/>
@@ -877,12 +921,14 @@
         <v>18</v>
       </c>
       <c r="D16" s="7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="E16" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="F16" s="7"/>
+      <c r="F16" s="7" t="s">
+        <v>42</v>
+      </c>
       <c r="G16" s="7"/>
       <c r="H16" s="6"/>
       <c r="I16" s="6"/>
@@ -893,15 +939,17 @@
         <v>12</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>22</v>
+        <v>43</v>
       </c>
       <c r="E17" s="7" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
-      <c r="F17" s="7"/>
+      <c r="F17" s="7" t="s">
+        <v>43</v>
+      </c>
       <c r="G17" s="7"/>
       <c r="H17" s="6"/>
       <c r="I17" s="6"/>

--- a/metrics/week 6 du.xlsx
+++ b/metrics/week 6 du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gordon\SMU\IS212\GitHub\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{95E9522B-BA6E-48FD-B3A3-E484A7438015}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECB103F-D8FD-4A5F-8214-7A0517DA83E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="44">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
   <si>
     <t>Person</t>
   </si>
@@ -159,10 +159,34 @@
     <t>Check forum, project wiki, update on requirements and schedule</t>
   </si>
   <si>
-    <t>Critical path, test cases</t>
+    <t>No issues</t>
   </si>
   <si>
-    <t>No issues</t>
+    <t>Critical path and schedule</t>
+  </si>
+  <si>
+    <t>Code BiddingRoundDAO, Round1DAO, admin home</t>
+  </si>
+  <si>
+    <t>Many tasks were missing in schedule for the critical path</t>
+  </si>
+  <si>
+    <t>Code admin controls, eg. navigation for bootstrap, round management</t>
+  </si>
+  <si>
+    <t>Difficulty coding Round 1 related DAOs without Round 1 clearing logic code</t>
+  </si>
+  <si>
+    <t>Replace session authentication with token authentication for student</t>
+  </si>
+  <si>
+    <t>Initially, wasn't sure that we were supposed to pass token using $_GET on every page</t>
+  </si>
+  <si>
+    <t>Second meeting for iteration 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Creating test cases made us discover that there were missing validations in the code </t>
   </si>
 </sst>
 </file>
@@ -537,9 +561,9 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="F17" sqref="F17"/>
+      <selection pane="topRight" activeCell="C1" sqref="C1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -646,10 +670,14 @@
         <v>32</v>
       </c>
       <c r="F3" s="7" t="s">
-        <v>39</v>
-      </c>
-      <c r="G3" s="7"/>
-      <c r="H3" s="6"/>
+        <v>48</v>
+      </c>
+      <c r="G3" s="7" t="s">
+        <v>36</v>
+      </c>
+      <c r="H3" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="I3" s="6"/>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
@@ -667,10 +695,14 @@
         <v>33</v>
       </c>
       <c r="F4" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G4" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G4" s="7"/>
-      <c r="H4" s="6"/>
+      <c r="H4" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="I4" s="6"/>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -679,7 +711,7 @@
         <v>12</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D5" s="7" t="s">
         <v>25</v>
@@ -688,10 +720,14 @@
         <v>34</v>
       </c>
       <c r="F5" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G5" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G5" s="7"/>
-      <c r="H5" s="6"/>
+      <c r="H5" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="I5" s="6"/>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
@@ -711,10 +747,14 @@
         <v>32</v>
       </c>
       <c r="F6" s="7" t="s">
+        <v>48</v>
+      </c>
+      <c r="G6" s="7" t="s">
         <v>39</v>
       </c>
-      <c r="G6" s="7"/>
-      <c r="H6" s="6"/>
+      <c r="H6" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="I6" s="6"/>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -732,10 +772,14 @@
         <v>33</v>
       </c>
       <c r="F7" s="7" t="s">
+        <v>39</v>
+      </c>
+      <c r="G7" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G7" s="7"/>
-      <c r="H7" s="6"/>
+      <c r="H7" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="I7" s="6"/>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -744,7 +788,7 @@
         <v>12</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D8" s="7" t="s">
         <v>25</v>
@@ -753,10 +797,14 @@
         <v>34</v>
       </c>
       <c r="F8" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="G8" s="7" t="s">
         <v>40</v>
       </c>
-      <c r="G8" s="7"/>
-      <c r="H8" s="6"/>
+      <c r="H8" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="I8" s="6"/>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -776,10 +824,14 @@
         <v>29</v>
       </c>
       <c r="F9" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G9" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G9" s="7"/>
-      <c r="H9" s="6"/>
+      <c r="H9" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="I9" s="6"/>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -797,10 +849,14 @@
         <v>30</v>
       </c>
       <c r="F10" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G10" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G10" s="7"/>
-      <c r="H10" s="6"/>
+      <c r="H10" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="I10" s="6"/>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -809,7 +865,7 @@
         <v>12</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D11" s="7" t="s">
         <v>27</v>
@@ -818,10 +874,14 @@
         <v>31</v>
       </c>
       <c r="F11" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G11" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G11" s="7"/>
-      <c r="H11" s="6"/>
+      <c r="H11" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="I11" s="6"/>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -841,10 +901,14 @@
         <v>29</v>
       </c>
       <c r="F12" s="7" t="s">
+        <v>44</v>
+      </c>
+      <c r="G12" s="7" t="s">
         <v>36</v>
       </c>
-      <c r="G12" s="7"/>
-      <c r="H12" s="6"/>
+      <c r="H12" s="7" t="s">
+        <v>37</v>
+      </c>
       <c r="I12" s="6"/>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -862,10 +926,14 @@
         <v>30</v>
       </c>
       <c r="F13" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="G13" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="G13" s="7"/>
-      <c r="H13" s="6"/>
+      <c r="H13" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="I13" s="6"/>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -874,7 +942,7 @@
         <v>12</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D14" s="7" t="s">
         <v>27</v>
@@ -883,10 +951,14 @@
         <v>31</v>
       </c>
       <c r="F14" s="7" t="s">
+        <v>47</v>
+      </c>
+      <c r="G14" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="G14" s="7"/>
-      <c r="H14" s="6"/>
+      <c r="H14" s="6" t="s">
+        <v>51</v>
+      </c>
       <c r="I14" s="6"/>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
@@ -908,8 +980,12 @@
       <c r="F15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="G15" s="7"/>
-      <c r="H15" s="6"/>
+      <c r="G15" s="7" t="s">
+        <v>43</v>
+      </c>
+      <c r="H15" s="7" t="s">
+        <v>18</v>
+      </c>
       <c r="I15" s="6"/>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -927,10 +1003,14 @@
         <v>18</v>
       </c>
       <c r="F16" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G16" s="7"/>
-      <c r="H16" s="6"/>
+        <v>43</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>18</v>
+      </c>
+      <c r="H16" s="6" t="s">
+        <v>50</v>
+      </c>
       <c r="I16" s="6"/>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -939,19 +1019,23 @@
         <v>12</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D17" s="7" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="E17" s="7" t="s">
         <v>35</v>
       </c>
       <c r="F17" s="7" t="s">
-        <v>43</v>
-      </c>
-      <c r="G17" s="7"/>
-      <c r="H17" s="6"/>
+        <v>42</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="H17" s="6" t="s">
+        <v>42</v>
+      </c>
       <c r="I17" s="6"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">

--- a/metrics/week 6 du.xlsx
+++ b/metrics/week 6 du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gordon\SMU\IS212\GitHub\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CECB103F-D8FD-4A5F-8214-7A0517DA83E1}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2D31E-E3F5-4EB0-AB53-13ABCB6F7C5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="120" uniqueCount="52">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="54">
   <si>
     <t>Person</t>
   </si>
@@ -187,6 +187,12 @@
   </si>
   <si>
     <t xml:space="preserve">Creating test cases made us discover that there were missing validations in the code </t>
+  </si>
+  <si>
+    <t>Debug code according to bug log, and code student view bid</t>
+  </si>
+  <si>
+    <t>Code student add bid and drop bid</t>
   </si>
 </sst>
 </file>
@@ -563,7 +569,7 @@
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="C1" sqref="C1:I1"/>
+      <selection pane="topRight" activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.2"/>
@@ -678,7 +684,9 @@
       <c r="H3" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I3" s="6"/>
+      <c r="I3" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="4" spans="1:26" ht="63" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="12"/>
@@ -703,7 +711,9 @@
       <c r="H4" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I4" s="6"/>
+      <c r="I4" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="12"/>
@@ -728,7 +738,9 @@
       <c r="H5" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="6"/>
+      <c r="I5" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="6" spans="1:26" ht="62.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="11" t="s">
@@ -755,7 +767,9 @@
       <c r="H6" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I6" s="6"/>
+      <c r="I6" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="7" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="12"/>
@@ -780,7 +794,9 @@
       <c r="H7" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I7" s="6"/>
+      <c r="I7" s="6" t="s">
+        <v>53</v>
+      </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="12"/>
@@ -805,7 +821,9 @@
       <c r="H8" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I8" s="6"/>
+      <c r="I8" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="9" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A9" s="11" t="s">
@@ -832,7 +850,9 @@
       <c r="H9" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I9" s="6"/>
+      <c r="I9" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="10" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A10" s="12"/>
@@ -857,7 +877,9 @@
       <c r="H10" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I10" s="6"/>
+      <c r="I10" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="11" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A11" s="12"/>
@@ -882,7 +904,9 @@
       <c r="H11" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I11" s="6"/>
+      <c r="I11" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="12" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A12" s="11" t="s">
@@ -909,7 +933,9 @@
       <c r="H12" s="7" t="s">
         <v>37</v>
       </c>
-      <c r="I12" s="6"/>
+      <c r="I12" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="13" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A13" s="12"/>
@@ -934,7 +960,9 @@
       <c r="H13" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I13" s="6"/>
+      <c r="I13" s="6" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="14" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A14" s="12"/>
@@ -959,7 +987,9 @@
       <c r="H14" s="6" t="s">
         <v>51</v>
       </c>
-      <c r="I14" s="6"/>
+      <c r="I14" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="15" spans="1:26" ht="64.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A15" s="11" t="s">
@@ -986,7 +1016,9 @@
       <c r="H15" s="7" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="6"/>
+      <c r="I15" s="6" t="s">
+        <v>50</v>
+      </c>
     </row>
     <row r="16" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A16" s="12"/>
@@ -1011,7 +1043,9 @@
       <c r="H16" s="6" t="s">
         <v>50</v>
       </c>
-      <c r="I16" s="6"/>
+      <c r="I16" s="6" t="s">
+        <v>18</v>
+      </c>
     </row>
     <row r="17" spans="1:9" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="12"/>
@@ -1036,7 +1070,9 @@
       <c r="H17" s="6" t="s">
         <v>42</v>
       </c>
-      <c r="I17" s="6"/>
+      <c r="I17" s="6" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="18" spans="1:9" ht="15.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A18" s="3"/>

--- a/metrics/week 6 du.xlsx
+++ b/metrics/week 6 du.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Gordon\SMU\IS212\GitHub\project-g3t4\metrics\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{52D2D31E-E3F5-4EB0-AB53-13ABCB6F7C5D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9211060D-3B83-4CDA-B9BD-952D15A3D59F}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="54">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="53">
   <si>
     <t>Person</t>
   </si>
@@ -190,9 +190,6 @@
   </si>
   <si>
     <t>Debug code according to bug log, and code student view bid</t>
-  </si>
-  <si>
-    <t>Code student add bid and drop bid</t>
   </si>
 </sst>
 </file>
@@ -567,7 +564,7 @@
   </sheetPr>
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A13" workbookViewId="0">
       <pane xSplit="2" topLeftCell="C1" activePane="topRight" state="frozen"/>
       <selection pane="topRight" activeCell="I17" sqref="I17"/>
     </sheetView>
@@ -712,7 +709,7 @@
         <v>50</v>
       </c>
       <c r="I4" s="6" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
@@ -795,7 +792,7 @@
         <v>50</v>
       </c>
       <c r="I7" s="6" t="s">
-        <v>53</v>
+        <v>18</v>
       </c>
     </row>
     <row r="8" spans="1:26" ht="63.75" customHeight="1" x14ac:dyDescent="0.2">
